--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itga9.xlsx
@@ -546,10 +546,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>0.1204617171308889</v>
+        <v>0.1729989494107778</v>
       </c>
       <c r="R2">
-        <v>1.084155454178</v>
+        <v>1.556990544697</v>
       </c>
       <c r="S2">
-        <v>0.07998647937105076</v>
+        <v>0.105793767313705</v>
       </c>
       <c r="T2">
-        <v>0.07998647937105076</v>
+        <v>0.105793767313705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
         <v>0.1208174440435555</v>
@@ -638,10 +638,10 @@
         <v>1.087356996392</v>
       </c>
       <c r="S3">
-        <v>0.08022268174338472</v>
+        <v>0.07388329585881397</v>
       </c>
       <c r="T3">
-        <v>0.08022268174338472</v>
+        <v>0.07388329585881398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>0.08538331428988889</v>
+        <v>0.3440671982428888</v>
       </c>
       <c r="R4">
-        <v>0.768449828609</v>
+        <v>3.096604784185999</v>
       </c>
       <c r="S4">
-        <v>0.05669444923866948</v>
+        <v>0.2104068564298395</v>
       </c>
       <c r="T4">
-        <v>0.05669444923866948</v>
+        <v>0.2104068564298395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>0.004358132410555556</v>
+        <v>0.004862142895888888</v>
       </c>
       <c r="R5">
-        <v>0.039223191695</v>
+        <v>0.043759286063</v>
       </c>
       <c r="S5">
-        <v>0.002893796273669617</v>
+        <v>0.002973338369542762</v>
       </c>
       <c r="T5">
-        <v>0.002893796273669617</v>
+        <v>0.002973338369542762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>0.1313077138757777</v>
+        <v>0.3569873033341111</v>
       </c>
       <c r="R6">
-        <v>1.181769424882</v>
+        <v>3.212885730007</v>
       </c>
       <c r="S6">
-        <v>0.08718821213359233</v>
+        <v>0.2183078673686043</v>
       </c>
       <c r="T6">
-        <v>0.08718821213359233</v>
+        <v>0.2183078673686043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H7">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>0.2719401081315556</v>
+        <v>0.1099726206708889</v>
       </c>
       <c r="R7">
-        <v>2.447460973184</v>
+        <v>0.989753586038</v>
       </c>
       <c r="S7">
-        <v>0.1805680042364965</v>
+        <v>0.06725137858790685</v>
       </c>
       <c r="T7">
-        <v>0.1805680042364965</v>
+        <v>0.06725137858790685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H8">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
-        <v>0.2727431550862222</v>
+        <v>0.07680168572977777</v>
       </c>
       <c r="R8">
-        <v>2.454688395776</v>
+        <v>0.6912151715680001</v>
       </c>
       <c r="S8">
-        <v>0.1811012267423955</v>
+        <v>0.04696641047283847</v>
       </c>
       <c r="T8">
-        <v>0.1811012267423955</v>
+        <v>0.04696641047283848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H9">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>0.1927512596835556</v>
+        <v>0.2187179263604444</v>
       </c>
       <c r="R9">
-        <v>1.734761337152</v>
+        <v>1.968461337244</v>
       </c>
       <c r="S9">
-        <v>0.1279866751332354</v>
+        <v>0.1337522192332537</v>
       </c>
       <c r="T9">
-        <v>0.1279866751332354</v>
+        <v>0.1337522192332537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H10">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>0.009838403662222222</v>
+        <v>0.003090785222444445</v>
       </c>
       <c r="R10">
-        <v>0.08854563296000001</v>
+        <v>0.027817067002</v>
       </c>
       <c r="S10">
-        <v>0.006532691798817308</v>
+        <v>0.001890102880703126</v>
       </c>
       <c r="T10">
-        <v>0.006532691798817308</v>
+        <v>0.001890102880703126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H11">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>0.296424746055111</v>
+        <v>0.2269310271975556</v>
       </c>
       <c r="R11">
-        <v>2.667822714496</v>
+        <v>2.042379244778</v>
       </c>
       <c r="S11">
-        <v>0.1968257833286886</v>
+        <v>0.1387747634847924</v>
       </c>
       <c r="T11">
-        <v>0.1968257833286886</v>
+        <v>0.1387747634847924</v>
       </c>
     </row>
   </sheetData>
